--- a/Data/Output/국립공원채용_박건후.xlsx
+++ b/Data/Output/국립공원채용_박건후.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCNI\Desktop\공부\UiPath\004_국립공원채용\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCNI\Desktop\공부\UiPath\004_국립공원채용\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,18 +25,1222 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="396">
   <si>
     <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공원명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>진행 현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>가야산</t>
+  </si>
+  <si>
+    <t>[가야산] 가야산국립공원 한시인력(환경관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>진행중</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>[가야산] 가야산국립공원 기간제(탐방로보수) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>마감</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>[가야산] 가야산국립공원 기간제 수익시설관리원 채용 공고</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>[가야산] 가야산국립공원 산불감시원 채용 공고</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>[가야산] 가야산사무소 국립공원지킴이 모집 공고</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>가야산사무소 산불감시원 채용 공고</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>가야산사무소 기간제(수익시설, 환경관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>가야산사무소 기간제(수익시설관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>가야산사무소 기간제(하반기 탐방로보수전담팀) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>가야산사무소 공무직(자원보전) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>가야산사무소 기간제(환경관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>가야산사무소 기간제(탐방로관리원) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>가야산사무소 기간제(소리길관리원) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>[가야산] 가야산사무소 기간제(상반기 탐방로보수전담팀) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>가야산사무소 기간제(자원보전관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>가야산사무소 국립공원지킴이 모집 공고</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>가야산국립공원사무소 산불감시원 채용 공고</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>[가야산] 가야산국립공원사무소 기간제(탐방로보수전담팀) 직원 채용</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>가야산국립공원사무소 기간제(숲치유프로그램 운영보조) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>가야산국립공원사무소 기간제(탐방로관리원) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>가야산국립공원사무소 기간제(환경미화) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>가야산국립공원사무소 기간제(소리길관리원) 직원 채용 추가접수 공고</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>가야산국립공원사무소 기간제(소리길관리원) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>[가야산] 가야산국립공원사무소 기간제(수익시설관리, 자원보전관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>[가야산] 가야산국립공원사무소 행정지원직(수익시설관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>[가야산] 가야산국립공원 한시인력(봄철 산불감시원) 채용</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>가야산사무소 국립공원지킴이 채용 공고</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>가야산사무소 기간제(대체인력) 직원 채용</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>[가야산] 기간제(가을철 산불감시원) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>[가야산] 기간제(환경미화 2차) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공원명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>덕유산</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 기간제(자원보전) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>[덕유산]덕유산국립공원 기간제(탐방운전) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>[덕유산]덕유산국립공원 계절직 한시인력(수익시설) 채용 공고</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 봄철 한시인력(환경관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 계절직 한시인력(수익시설) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>[덕유산]덕유산국립공원 봄철 한시인력(산불감시원) 채용 공고</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>[덕유산]덕유산국립공원 공무직(환경관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 공무직(탐방안전) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 한시인력(환경관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>[덕유산]2024년 덕유산사무소 국립공원지킴이 모집 공고</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 겨울성수기 한시인력(수익시설) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>[덕유산] 2024년 덕유산사무소 국립공원지킴이 모집 공고</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 가을성수기 한시인력(환경관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 겨울철 한시인력(수익시설) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 가을철 한시인력(산불감시원) 채용 공고</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 기간제(대체인력_탐방안전) 직원 추가 채용 공고</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 한시인력(수익시설) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 공무직(환경관리-제한경쟁) 직원 채용 2차 추가접수 공고</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 공무직(환경관리-제한경쟁) 직원 채용 추가접수 공고</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 공무직(환경관리-제한경쟁) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 국립공원지킴이(녹색순찰대) 모집 공고</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 여름성수기 한시인력(환경관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 여름성수기 한시인력(수익시설) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 기간제(탐방운전) 직원 채용 추가접수</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 기간제(탐방운전) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 기간제(대체인력_자원보전) 직원 채용 추가접수</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 한시인력(탐방안내) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 기간제 (대체인력_자원보전) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>덕유산국립공원 한시인력(탐방로보수) 채용 공고</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>덕유산국립공원 기간제(환경관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>덕유산국립공원 기간제(수익시설) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>덕유산국립공원 봄철 한시인력(환경관리) 채용 공고</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>덕유산국립공원 국립공원지킴이(녹색순찰대) 모집 공고</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>덕유산국립공원 기간제(대체인력-탐방안전) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>덕유산국립공원 봄철 한시인력(산불감시원) 채용 공고</t>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공원명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>무등산</t>
+  </si>
+  <si>
+    <t>[무등산] 2024년 무등산국립공원사무소 한시적근로자(탐방로보수전담팀) 공개채용 공고</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>[무등산동부] 무등산국립공원동부사무소 기간제[탐방로 보수전담팀] 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>[무등산동부] 무등산국립공원동부사무소 기간제(수익시설) 직원 2차 채용 공고</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>[무등산동부] 무등산국립공원동부사무소 기간제[봄철 산불감시원] 채용 공고</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>[무등산동부] 2024년 무등산국립공원동부사무소 기간제(수익시설, 환경관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>[무등산] 2024년 무등산국립공원사무소 한시적근로자(봄철 산불감시원) 직원 공개채용 공고</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>[무등산] 2024년 무등산국립공원사무소 공무직(탐방시설) 직원 공개채용 공고</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>[무등산] 2024년 무등산국립공원사무소 기간제근로자(대체인력_탐방안전) 공개채용 공고</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>[무등산] 2024년 무등산국립공원사무소 공무직(탐방안전) 직원 공개채용 공고</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>[무등산동부] 2024년 무등산국립공원동부사무소 기간제[대체인력_탐방시설] 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>[무등산동부] 2024년 무등산국립공원동부사무소 국립공원지킴이 2차 모집 공고</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>[무등산] 2024년 무등산국립공원사무소 국립공원지킴이 모집 공고</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>[무등산동부] 2024년도 무등산국립공원동부사무소 국립공원지킴이[녹색순찰대] 모집 공고</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>[무등산동부] 무등산국립공원동부사무소 공무직[탐방시설] 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>[무등산] 2023년 무등산국립공원사무소 한시적근로자(가을철 산불감시원) 직원 공개채용 공고</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>[무등산동부] 무등산국립공원동부사무소 기간제(가을철 산불감시원) 채용 공고</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>[무등산] 2023년 무등산국립공원사무소 한시적근로자(환경관리) 직원 공개채용 공고</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>[무등산] 2023년 무등산국립공원사무소 공무직(탐방해설) 직원 공개채용 공고</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>[무등산] 2023년 무등산국립공원사무소 공무직(환경관리) 직원 공개채용 공고</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>[무등산동부] 무등산국립공원동부사무소 공무직(탐방안전) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>[무등산] 2023년 무등산국립공원사무소 기간제근로자(환경관리) 직원 공개채용 공고</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>[무등산동부]무등산국립공원동부사무소 기간제[대체인력_탐방시설] 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>[무등산동부]무등산국립공원동부사무소 기간제(수익시설) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>[무등산동부]무등산국립공원동부사무소 기간제(탐방로보수전담팀) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>[무등산동부]무등산국립공원동부사무소 기간제[환경관리] 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>[무등산] 2023년 무등산국립공원사무소 한시적근로자(탐방로보수전담팀) 공개채용 공고</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>[무등산] 2023년 무등산국립공원사무소 공무직(환경관리) 직원 공개채용(제한경쟁) 공고</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>[무등산] 2023년 무등산국립공원사무소 공무직 대체인력(탐방안전) 공개채용 공고</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>[무등산] 2023년 무등산국립공원사무소 공무직(탐방안전) 공개채용 공고</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>[무등산] 2023년 한시적근로자(봄철 산불감시원) 공개채용 공고</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>[무등산동부]무등산국립공원동부사무소 기간제(봄철 산불감시원) 채용 공고</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>[무등산동부]무등산국립공원동부사무소 공무직[탐방해설] 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>[무등산동부] 2023년도 무등산국립공원동부사무소 국립공원지킴이 모집 공고</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>[무등산] 2023년 무등산사무소 국립공원지킴이(녹색순찰대) 공개채용 공고</t>
+  </si>
+  <si>
+    <t>[무등산] 2022년 한시적근로자(산불감시원) 공개채용 공고</t>
+  </si>
+  <si>
+    <t>[무등산동부] 무등산국립공원동부사무소 국립공원지킴이(녹색순찰대) 채용 일정 변경(3차)</t>
+  </si>
+  <si>
+    <t>[무등산동부] 무등산국립공원동부사무소 국립공원지킴이(녹색순찰대) 채용 일정 변경(2차)</t>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공원명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>북한산</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 2024년 국립공원지킴이 채용 공고</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 한시인력(산불감시) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 기간제(자원보전관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 한시인력(환경관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 한시인력(탐방로보수전담) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 국립공원지킴이 모집 공고(2차)</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 기간제(탐방로보수) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 기간제(환경관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 기간제(탐방운전) 직원(2차) 채용 공고</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 기간제(탐방운전) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 기간제(수익시설) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 기간제(산불감시) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 기간제(환경관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 한시인력(산불감시원) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 공무직(수익시설) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 공무직(탐방안전) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 공무직(환경관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 기간제(수익시설관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>493</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 공무직(환경관리_보훈) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>492</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 국립공원지킴이 모집 공고</t>
+  </si>
+  <si>
+    <t>491</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산국립공원도봉사무소 2024년 국립공원지킴이 채용 공고</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 한시인력(산불감시) 직원 추가 채용 공고</t>
+  </si>
+  <si>
+    <t>489</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 가을철 한시인력(산불감시) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 공무직(수익시설) 직원 채용</t>
+  </si>
+  <si>
+    <t>487</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 한시인력(탐방운전) 직원 채용(3차) 공고</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 기간제(환경관리_반려견 동반입장 사업) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 한시인력(탐방운전) 직원 채용(2차) 공고</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 기간제[대체인력-공무직(탐방해설)] 직원 채용(2차) 추가접수 공고</t>
+  </si>
+  <si>
+    <t>482</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 한시인력(수익시설) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 한시인력(탐방운전) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 기간제[대체인력-공무직(탐방해설)] 직원 채용(2차) 공고</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 기간제[대체인력-공무직(탐방해설)] 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 공무직(탐방안전) 직원 채용</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 공무직(환경관리_보훈) 직원 채용</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 한시인력 직원(환경관리) 채용 공고</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 공무직(탐방해설) 직원 채용</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 한시인력(탐방로보수) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공원명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속리산</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원사무소 기간제 직원(자원보전) 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 한시인력(탐방로 보수전담팀) 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 국립공원지킴이(녹색순찰대) 채용 일정 변경 안내(재변경)</t>
+  </si>
+  <si>
+    <t>속리산국립공원 국립공원지킴이(녹색순찰대) 채용 일정 변경 안내</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원사무소 한시인력[봄철 산불감시원] 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 2024년 속리산국립공원사무소 국립공원지킴이 모집 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원사무소 한시인력[가을철 산불감시원] 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 기간제근로자[한시인력_탐방안내원] 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산]속리산국립공원 공무직[탐방안전] 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 기간제 근로자[한시인력_자생식물증식장 관리원] 채용 3차 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 공무직[탐방안전] 직원 채용 재공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 기간제 근로자[한시인력_자생식물증식장 관리원] 채용 재공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 기간제 근로자[한시인력_자생식물증식장 관리원] 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원사무소 기간제 근로자[국립공원지킴이(녹색순찰대)] 채용 일정 변경 안내</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 기간제 직원(충청도양반길관리원) 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 공무직[탐방안전] 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 2023년 속리산국립공원지킴이 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 공무직[탐방해설] 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 기간제 근로자(환경관리, 불목이옛길관리, 충청도양반길관리) 채용 추가접수 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 기간제 근로자(환경관리, 불목이옛길관리, 충청도양반길관리) 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 기간제근로자[한시인력_탐방로보수팀] 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 기간제 근로자(환경관리_청소) 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 공무직(환경관리] 공개 채용 공고[제한(보훈)경쟁]</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 공무직[탐방시설] 직원 채용 재공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원？기간제 근로자(자원보전) 직원？채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 공무직[탐방시설] 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 기간제 직원[한시인력(환경미화_청소)] 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 2023년 속리산국립공원사무소 국립공원지킴이 모집 공고(추가)</t>
+  </si>
+  <si>
+    <t>[속리산] 2023년 속리산국립공원사무소 국립공원지킴이 모집 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 기간제 직원(한시인력_가을철 산불감시원) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 한시인력[국립공원지킴이(녹색순찰대)] 모집 일정 변경 재연기(3차) 안내</t>
+  </si>
+  <si>
+    <t>[속리산] 한시인력[국립공원지킴이(녹색순찰대)] 채용 일정 변경</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 지원직[무기계약직_재난구조대] 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원사무소 한시인력[국립공원지킴이(녹색순찰대)] 모집 공고</t>
+  </si>
+  <si>
+    <t>[속리산]2022년 속리산국립공원사무소 한시인력(자원보전관리, 탐방안내원) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원사무소 지원직[청사관리(미화)] 근로자 채용</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 기간제 직원(한시인력_환경미화,청소) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산]속리산국립공원 기간제(충청도양반길관리원) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공원명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오대산</t>
+  </si>
+  <si>
+    <t>[오대산] 기간제(환경관리) 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 공무직(탐방시설) 제한경쟁 채용 4차</t>
+  </si>
+  <si>
+    <t>[오대산] 국립공원지킴이 채용(3차)</t>
+  </si>
+  <si>
+    <t>[오대산] 공무직(탐방시설) 제한경쟁 채용 3차</t>
+  </si>
+  <si>
+    <t>[오대산] 한시인력(탐방로보수) 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 공무직(탐방시설) 제한경쟁 채용 2차</t>
+  </si>
+  <si>
+    <t>[오대산] 한시인력(산불감시) 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 공무직(탐방시설) 제한경쟁 채용 추가접수</t>
+  </si>
+  <si>
+    <t>[오대산] 공무직(탐방시설) 제한경쟁 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 한시인력(환경관리) 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 2024년 오대산국립공원사무소 국립공원지킴이 채용(2차)</t>
+  </si>
+  <si>
+    <t>[오대산] 2024년 오대산국립공원사무소 국립공원지킴이 채용 일정 변경 안내</t>
+  </si>
+  <si>
+    <t>[오대산] 2024년 오대산국립공원사무소 국립공원지킴이 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 한시인력(환경관리, 산불감시) 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 공무직(환경관리) 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 공무직(탐방해설) 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 한시인력(수익시설, 탐방안내) 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 한시인력(수익시설) 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 국립공원지킴이 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 기간제(수익시설) 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 기간제(환경관리) 채용 추가접수</t>
+  </si>
+  <si>
+    <t>[오대산] 공무직(탐방해설) 채용 추가접수</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공원명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -413,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
@@ -429,16 +1633,100 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>393</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>394</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -450,7 +1738,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
@@ -478,6 +1766,566 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -487,7 +2335,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
@@ -503,16 +2351,576 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -523,7 +2931,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -539,16 +2947,576 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -559,7 +3527,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -575,16 +3543,576 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>236</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>237</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +4123,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
@@ -611,16 +4139,576 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>318</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>319</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -631,7 +4719,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
@@ -647,16 +4735,576 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>361</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>362</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
